--- a/Classes/verwijderde_epochs.xlsx
+++ b/Classes/verwijderde_epochs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="3" sheetId="2" r:id="rId3"/>
     <sheet name="4" sheetId="3" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>2L</t>
   </si>
@@ -60,6 +63,39 @@
   </si>
   <si>
     <t>BL4L2</t>
+  </si>
+  <si>
+    <t>OOBL4L</t>
+  </si>
+  <si>
+    <t>OOBL4R</t>
+  </si>
+  <si>
+    <t>OO2R</t>
+  </si>
+  <si>
+    <t>OO2L</t>
+  </si>
+  <si>
+    <t>OO1R</t>
+  </si>
+  <si>
+    <t>OO8L</t>
+  </si>
+  <si>
+    <t>OO8R</t>
+  </si>
+  <si>
+    <t>OO4L</t>
+  </si>
+  <si>
+    <t>OO1L</t>
+  </si>
+  <si>
+    <t>BLOO4R</t>
+  </si>
+  <si>
+    <t>BLOO4L</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1762,4 +1798,1455 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="A10:Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>17</v>
+      </c>
+      <c r="G1">
+        <v>24</v>
+      </c>
+      <c r="H1">
+        <v>32</v>
+      </c>
+      <c r="I1">
+        <v>45</v>
+      </c>
+      <c r="J1">
+        <v>47</v>
+      </c>
+      <c r="K1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>68</v>
+      </c>
+      <c r="L2">
+        <v>73</v>
+      </c>
+      <c r="M2">
+        <v>85</v>
+      </c>
+      <c r="N2">
+        <v>91</v>
+      </c>
+      <c r="O2">
+        <v>93</v>
+      </c>
+      <c r="P2">
+        <v>94</v>
+      </c>
+      <c r="Q2">
+        <v>103</v>
+      </c>
+      <c r="R2">
+        <v>105</v>
+      </c>
+      <c r="S2">
+        <v>124</v>
+      </c>
+      <c r="T2">
+        <v>134</v>
+      </c>
+      <c r="U2">
+        <v>148</v>
+      </c>
+      <c r="V2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <v>25</v>
+      </c>
+      <c r="D1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>46</v>
+      </c>
+      <c r="H18">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>52</v>
+      </c>
+      <c r="J18">
+        <v>53</v>
+      </c>
+      <c r="K18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>44</v>
+      </c>
+      <c r="I24">
+        <v>46</v>
+      </c>
+      <c r="J24">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>19</v>
+      </c>
+      <c r="G1">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>37</v>
+      </c>
+      <c r="I1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>51</v>
+      </c>
+      <c r="L7">
+        <v>56</v>
+      </c>
+      <c r="M7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>36</v>
+      </c>
+      <c r="I22">
+        <v>51</v>
+      </c>
+      <c r="J22">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>37</v>
+      </c>
+      <c r="G24">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <v>28</v>
+      </c>
+      <c r="H25">
+        <v>36</v>
+      </c>
+      <c r="I25">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>42</v>
+      </c>
+      <c r="H27">
+        <v>45</v>
+      </c>
+      <c r="I27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>